--- a/metricas_modelos.xlsx
+++ b/metricas_modelos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\GITHUB\PRIVATE\ESTATISTICA\AdvancedTopics_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98A7302-8DEA-45D8-913F-4C8AB1F972D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23C70C-115E-4888-A57C-CD5135E87158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="705" windowWidth="22185" windowHeight="11295" xr2:uid="{C0AEE0C5-32A0-40AE-9273-FD0133F3A484}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{C0AEE0C5-32A0-40AE-9273-FD0133F3A484}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Tipo de Modelo</t>
-  </si>
-  <si>
-    <t>ElasticNet Model</t>
   </si>
   <si>
     <t>R^2</t>
@@ -47,20 +44,26 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>alpha</t>
+    <t>Escolha do melhor modelo</t>
   </si>
   <si>
-    <t>l1_ratio</t>
+    <t>LinearRegression</t>
   </si>
   <si>
-    <t>Escolha do melhor modelo</t>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Test size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,11 +143,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -622,190 +657,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954775E3-D177-42D5-8243-337C8DFE84C0}">
-  <dimension ref="B6:G13"/>
+  <dimension ref="B6:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.8397</v>
-      </c>
-      <c r="D7" s="5">
-        <v>41.048699999999997</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.83404400000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>17.678899999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>41.8307</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>IF(C7=MAX($C$7:$C$13),"Melhor modelo","")</f>
+        <f>IF(C7=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>40.96</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17.7638</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>42.008099999999999</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f t="shared" ref="G8:G13" si="0">IF(C8=MAX($C$7:$C$13),"Melhor modelo","")</f>
-        <v>Melhor modelo</v>
+        <f>IF(C8=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.83989999999999998</v>
-      </c>
-      <c r="D9" s="5">
-        <v>41.027000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16.706800000000001</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>39.0364</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C9=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="D10" s="5">
-        <v>40.96</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16.7257</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>38.342199999999998</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Melhor modelo</v>
+        <f>IF(C10=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="D11" s="5">
-        <v>41.017299999999999</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16.813199999999998</v>
       </c>
       <c r="E11" s="5">
-        <v>0.5</v>
+        <v>39.212299999999999</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C11=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="D12" s="5">
-        <v>41.014800000000001</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16.728300000000001</v>
       </c>
       <c r="E12" s="5">
-        <v>0.5</v>
+        <v>38.726500000000001</v>
       </c>
       <c r="F12" s="5">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C12=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.83919999999999995</v>
-      </c>
-      <c r="D13" s="5">
-        <v>41.119</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16.547499999999999</v>
       </c>
       <c r="E13" s="5">
-        <v>50</v>
+        <v>38.219099999999997</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C13=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16.372699999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>37.7316</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>IF(C14=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <v>MELHOR MODELO</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16.429400000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>38.171700000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>IF(C15=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{F3B2EB42-514D-4FAA-B612-59B3FFA361DD}">
+            <xm:f>NOT(ISERROR(SEARCH($G$13,G1)))</xm:f>
+            <xm:f>$G$13</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/metricas_modelos.xlsx
+++ b/metricas_modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\GITHUB\PRIVATE\ESTATISTICA\AdvancedTopics_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23C70C-115E-4888-A57C-CD5135E87158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A3FB39-53D3-427D-9CE8-298AA8FD3E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{C0AEE0C5-32A0-40AE-9273-FD0133F3A484}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AEE0C5-32A0-40AE-9273-FD0133F3A484}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,19 +143,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,9 +657,7 @@
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="19.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -677,10 +666,10 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -697,10 +686,10 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>0.83404400000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>17.678899999999999</v>
       </c>
       <c r="E7" s="5">
@@ -710,7 +699,7 @@
         <v>0.25</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>IF(C7=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" ref="G7:G15" si="0">IF(C7=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
         <v/>
       </c>
     </row>
@@ -718,10 +707,10 @@
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>0.83879999999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>17.7638</v>
       </c>
       <c r="E8" s="5">
@@ -731,7 +720,7 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>IF(C8=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -739,10 +728,10 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0.85589999999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>16.706800000000001</v>
       </c>
       <c r="E9" s="5">
@@ -752,7 +741,7 @@
         <v>0.15</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>IF(C9=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -760,10 +749,10 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.84950000000000003</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>16.7257</v>
       </c>
       <c r="E10" s="5">
@@ -773,7 +762,7 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f>IF(C10=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -781,10 +770,10 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>0.85329999999999995</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>16.813199999999998</v>
       </c>
       <c r="E11" s="5">
@@ -794,7 +783,7 @@
         <v>0.2</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>IF(C11=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -802,10 +791,10 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.86160000000000003</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>16.728300000000001</v>
       </c>
       <c r="E12" s="5">
@@ -815,7 +804,7 @@
         <v>0.16</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>IF(C12=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -823,10 +812,10 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>0.86360000000000003</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>16.547499999999999</v>
       </c>
       <c r="E13" s="5">
@@ -836,7 +825,7 @@
         <v>0.17</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>IF(C13=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -844,10 +833,10 @@
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.86509999999999998</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>16.372699999999998</v>
       </c>
       <c r="E14" s="5">
@@ -857,7 +846,7 @@
         <v>0.18</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>IF(C14=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v>MELHOR MODELO</v>
       </c>
     </row>
@@ -865,10 +854,10 @@
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>0.86099999999999999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>16.429400000000001</v>
       </c>
       <c r="E15" s="5">
@@ -878,13 +867,9 @@
         <v>0.19</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>IF(C15=MAX($C$7:$C$15),"MELHOR MODELO","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
